--- a/Code/Results/Cases/Case_9_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.05583574065204</v>
+        <v>12.83669168116389</v>
       </c>
       <c r="C2">
-        <v>8.815685030922316</v>
+        <v>8.967895610565517</v>
       </c>
       <c r="D2">
-        <v>5.060027553974447</v>
+        <v>5.114711175774857</v>
       </c>
       <c r="E2">
-        <v>28.67183487675524</v>
+        <v>28.67697645193921</v>
       </c>
       <c r="F2">
-        <v>17.31460513754594</v>
+        <v>16.96181596940339</v>
       </c>
       <c r="G2">
-        <v>21.32120404140315</v>
+        <v>20.03276721765738</v>
       </c>
       <c r="H2">
-        <v>2.798829838738859</v>
+        <v>2.802438707678233</v>
       </c>
       <c r="I2">
-        <v>2.719292920164155</v>
+        <v>2.765510988947607</v>
       </c>
       <c r="J2">
-        <v>8.632474616543213</v>
+        <v>9.015772145910947</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.53186299689397</v>
       </c>
       <c r="M2">
-        <v>11.90282410768708</v>
+        <v>7.809744581081011</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.9064500639372</v>
       </c>
       <c r="P2">
-        <v>12.02424355983992</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.97359978525977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.9819061856406</v>
+      </c>
+      <c r="S2">
+        <v>13.70221535028425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.21658498445305</v>
+        <v>12.05066556687714</v>
       </c>
       <c r="C3">
-        <v>8.491637410543905</v>
+        <v>8.540240736300849</v>
       </c>
       <c r="D3">
-        <v>4.852663403771902</v>
+        <v>4.890859681938846</v>
       </c>
       <c r="E3">
-        <v>26.83574916956601</v>
+        <v>26.84829623220566</v>
       </c>
       <c r="F3">
-        <v>16.9347911143506</v>
+        <v>16.62738876921946</v>
       </c>
       <c r="G3">
-        <v>20.83405213633787</v>
+        <v>19.63050208382883</v>
       </c>
       <c r="H3">
-        <v>2.581777152757259</v>
+        <v>2.590428973308609</v>
       </c>
       <c r="I3">
-        <v>2.58949824467347</v>
+        <v>2.650262353976131</v>
       </c>
       <c r="J3">
-        <v>8.632953100273545</v>
+        <v>9.000342463242884</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.67928885786</v>
       </c>
       <c r="M3">
-        <v>11.25906133856694</v>
+        <v>7.788838929036886</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.26427800965931</v>
       </c>
       <c r="P3">
-        <v>12.15023214060464</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.87346404229123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.09505826263434</v>
+      </c>
+      <c r="S3">
+        <v>13.63234124659375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66811804258841</v>
+        <v>11.53700691201435</v>
       </c>
       <c r="C4">
-        <v>8.288631078057621</v>
+        <v>8.271135518064863</v>
       </c>
       <c r="D4">
-        <v>4.720157152688238</v>
+        <v>4.747797112971591</v>
       </c>
       <c r="E4">
-        <v>25.64393183668012</v>
+        <v>25.66132150258352</v>
       </c>
       <c r="F4">
-        <v>16.70449057555827</v>
+        <v>16.42429159707387</v>
       </c>
       <c r="G4">
-        <v>20.53820870937112</v>
+        <v>19.38857143267458</v>
       </c>
       <c r="H4">
-        <v>2.44362724170972</v>
+        <v>2.455452774658471</v>
       </c>
       <c r="I4">
-        <v>2.50754412887873</v>
+        <v>2.577629263570528</v>
       </c>
       <c r="J4">
-        <v>8.635628296990379</v>
+        <v>8.991607974800569</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.77197005238127</v>
       </c>
       <c r="M4">
-        <v>10.84373207390804</v>
+        <v>7.795662770620771</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.84999041699091</v>
       </c>
       <c r="P4">
-        <v>12.22926488907574</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.8164307896453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.16644284585414</v>
+      </c>
+      <c r="S4">
+        <v>13.59295992598371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.43076314631199</v>
+        <v>11.31445565369792</v>
       </c>
       <c r="C5">
-        <v>8.212314853824793</v>
+        <v>8.167979184346791</v>
       </c>
       <c r="D5">
-        <v>4.666130316251454</v>
+        <v>4.689380108934431</v>
       </c>
       <c r="E5">
-        <v>25.14186721128945</v>
+        <v>25.16132077141701</v>
       </c>
       <c r="F5">
-        <v>16.60532927520703</v>
+        <v>16.33607339416795</v>
       </c>
       <c r="G5">
-        <v>20.40757320403002</v>
+        <v>19.28019253732184</v>
       </c>
       <c r="H5">
-        <v>2.38596181302941</v>
+        <v>2.399106072379924</v>
       </c>
       <c r="I5">
-        <v>2.474271274712713</v>
+        <v>2.548518687696826</v>
       </c>
       <c r="J5">
-        <v>8.635593009608264</v>
+        <v>8.986546540804431</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.80603968792805</v>
       </c>
       <c r="M5">
-        <v>10.66969929026842</v>
+        <v>7.800874283197986</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.67640851437661</v>
       </c>
       <c r="P5">
-        <v>12.26182536201358</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.78988710846149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.19601256247696</v>
+      </c>
+      <c r="S5">
+        <v>13.57343762118014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.38412258548155</v>
+        <v>11.27039589814568</v>
       </c>
       <c r="C6">
-        <v>8.208621056096163</v>
+        <v>8.160612779122195</v>
       </c>
       <c r="D6">
-        <v>4.658600965065455</v>
+        <v>4.681132668919756</v>
       </c>
       <c r="E6">
-        <v>25.05729650678397</v>
+        <v>25.077106289515</v>
       </c>
       <c r="F6">
-        <v>16.58140672746426</v>
+        <v>16.31402277117794</v>
       </c>
       <c r="G6">
-        <v>20.3724764037761</v>
+        <v>19.2486988550666</v>
       </c>
       <c r="H6">
-        <v>2.376158903423578</v>
+        <v>2.389529585398951</v>
       </c>
       <c r="I6">
-        <v>2.48460070312626</v>
+        <v>2.545095604808445</v>
       </c>
       <c r="J6">
-        <v>8.633532274833254</v>
+        <v>8.983657712259447</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.80655113863085</v>
       </c>
       <c r="M6">
-        <v>10.64071757662659</v>
+        <v>7.79897660705043</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.64750969851752</v>
       </c>
       <c r="P6">
-        <v>12.26717465261317</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.78016245195747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.2009565991258</v>
+      </c>
+      <c r="S6">
+        <v>13.56494795824582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.64701520601259</v>
+        <v>11.51302551119668</v>
       </c>
       <c r="C7">
-        <v>8.312022138893273</v>
+        <v>8.292169483049117</v>
       </c>
       <c r="D7">
-        <v>4.723531302481156</v>
+        <v>4.753782728882666</v>
       </c>
       <c r="E7">
-        <v>25.63662751146614</v>
+        <v>25.6536213092965</v>
       </c>
       <c r="F7">
-        <v>16.68279381136334</v>
+        <v>16.39074088026224</v>
       </c>
       <c r="G7">
-        <v>20.49995005502258</v>
+        <v>19.43673556425879</v>
       </c>
       <c r="H7">
-        <v>2.442446496953583</v>
+        <v>2.454004040694347</v>
       </c>
       <c r="I7">
-        <v>2.509642282398219</v>
+        <v>2.580259094209064</v>
       </c>
       <c r="J7">
-        <v>8.629929684266873</v>
+        <v>8.951085014878499</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.75392827521975</v>
       </c>
       <c r="M7">
-        <v>10.84197811704417</v>
+        <v>7.783857553672356</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.84466059794635</v>
       </c>
       <c r="P7">
-        <v>12.22953023958007</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.80141426141889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.16704385565126</v>
+      </c>
+      <c r="S7">
+        <v>13.56965941782925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.75139093763998</v>
+        <v>12.54025776789441</v>
       </c>
       <c r="C8">
-        <v>8.736018438540997</v>
+        <v>8.842484180833225</v>
       </c>
       <c r="D8">
-        <v>4.994835146430884</v>
+        <v>5.052349065753618</v>
       </c>
       <c r="E8">
-        <v>28.05139577879384</v>
+        <v>28.05772972116697</v>
       </c>
       <c r="F8">
-        <v>17.1569162296712</v>
+        <v>16.78072820386708</v>
       </c>
       <c r="G8">
-        <v>21.10571765530402</v>
+        <v>20.12696569524152</v>
       </c>
       <c r="H8">
-        <v>2.724482872365803</v>
+        <v>2.728905525579287</v>
       </c>
       <c r="I8">
-        <v>2.677775601627669</v>
+        <v>2.728686382234831</v>
       </c>
       <c r="J8">
-        <v>8.624653259116879</v>
+        <v>8.889399919456636</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.55148501024416</v>
       </c>
       <c r="M8">
-        <v>11.68578592898231</v>
+        <v>7.773031651108568</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.67876618624991</v>
       </c>
       <c r="P8">
-        <v>12.06735854137979</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.91899066540849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.02168783530558</v>
+      </c>
+      <c r="S8">
+        <v>13.63030516454755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.68337816643065</v>
+        <v>14.34922546267989</v>
       </c>
       <c r="C9">
-        <v>9.49155895648981</v>
+        <v>9.836150512587237</v>
       </c>
       <c r="D9">
-        <v>5.477523500299516</v>
+        <v>5.57503453271775</v>
       </c>
       <c r="E9">
-        <v>32.277152049169</v>
+        <v>32.26611702253563</v>
       </c>
       <c r="F9">
-        <v>18.14065332935369</v>
+        <v>17.64014684114396</v>
       </c>
       <c r="G9">
-        <v>22.37770491386659</v>
+        <v>21.26015446343064</v>
       </c>
       <c r="H9">
-        <v>3.24030554871455</v>
+        <v>3.232369710161713</v>
       </c>
       <c r="I9">
-        <v>2.986808300678489</v>
+        <v>3.002276021668703</v>
       </c>
       <c r="J9">
-        <v>8.644022607748967</v>
+        <v>8.90838087748755</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.21031116431162</v>
       </c>
       <c r="M9">
-        <v>13.17751350399433</v>
+        <v>7.937473176667376</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.16501524379932</v>
       </c>
       <c r="P9">
-        <v>11.76227214983886</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.21152385555188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.75065790956949</v>
+      </c>
+      <c r="S9">
+        <v>13.83516361993623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.91062123429633</v>
+        <v>15.48540505712738</v>
       </c>
       <c r="C10">
-        <v>10.00927312873589</v>
+        <v>10.48626595094341</v>
       </c>
       <c r="D10">
-        <v>5.827448177542668</v>
+        <v>5.964026833925428</v>
       </c>
       <c r="E10">
-        <v>34.19535428752728</v>
+        <v>34.17081213194012</v>
       </c>
       <c r="F10">
-        <v>18.76702481607955</v>
+        <v>18.11750682668182</v>
       </c>
       <c r="G10">
-        <v>23.13550271834512</v>
+        <v>22.39060378022224</v>
       </c>
       <c r="H10">
-        <v>3.562952523646485</v>
+        <v>3.545171754054509</v>
       </c>
       <c r="I10">
-        <v>3.199490644978785</v>
+        <v>3.189830552478389</v>
       </c>
       <c r="J10">
-        <v>8.641942994084937</v>
+        <v>8.712245217159351</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.91973846237599</v>
       </c>
       <c r="M10">
-        <v>14.14646721055171</v>
+        <v>8.083396928022268</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.11332217286938</v>
       </c>
       <c r="P10">
-        <v>11.55093237871043</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.37343467406871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.57033573587374</v>
+      </c>
+      <c r="S10">
+        <v>13.8871515750939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.18859068793365</v>
+        <v>15.73732907902427</v>
       </c>
       <c r="C11">
-        <v>10.06542962161466</v>
+        <v>10.49773070672817</v>
       </c>
       <c r="D11">
-        <v>6.165127325382081</v>
+        <v>6.334352370635978</v>
       </c>
       <c r="E11">
-        <v>27.54059780268732</v>
+        <v>27.50924234716778</v>
       </c>
       <c r="F11">
-        <v>18.21424083143608</v>
+        <v>17.44537492839245</v>
       </c>
       <c r="G11">
-        <v>21.98453958882712</v>
+        <v>22.25184136864323</v>
       </c>
       <c r="H11">
-        <v>3.988142186807721</v>
+        <v>3.969341464098969</v>
       </c>
       <c r="I11">
-        <v>3.253676708195762</v>
+        <v>3.236717721912011</v>
       </c>
       <c r="J11">
-        <v>8.403970264019991</v>
+        <v>8.156719378947662</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.5395130262877</v>
       </c>
       <c r="M11">
-        <v>14.34863120683411</v>
+        <v>7.803688302314396</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.27791002964707</v>
       </c>
       <c r="P11">
-        <v>11.50998799322302</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.82945936761543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.56496896080193</v>
+      </c>
+      <c r="S11">
+        <v>13.26646475016174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.19692585655402</v>
+        <v>15.75085736810326</v>
       </c>
       <c r="C12">
-        <v>9.9789375670144</v>
+        <v>10.35677606780819</v>
       </c>
       <c r="D12">
-        <v>6.374678939138358</v>
+        <v>6.55557192382159</v>
       </c>
       <c r="E12">
-        <v>21.52216656772945</v>
+        <v>21.48719747892889</v>
       </c>
       <c r="F12">
-        <v>17.62920144672485</v>
+        <v>16.83112184693863</v>
       </c>
       <c r="G12">
-        <v>20.88391089990015</v>
+        <v>21.64278194265777</v>
       </c>
       <c r="H12">
-        <v>4.89887990632969</v>
+        <v>4.883594108425806</v>
       </c>
       <c r="I12">
-        <v>3.256178708863087</v>
+        <v>3.237248394534423</v>
       </c>
       <c r="J12">
-        <v>8.208036282999336</v>
+        <v>7.8793071924541</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.31833816953606</v>
       </c>
       <c r="M12">
-        <v>14.32369438925462</v>
+        <v>7.561222482695533</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.23539488654855</v>
       </c>
       <c r="P12">
-        <v>11.52780606421419</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.34882189011067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.60448428269243</v>
+      </c>
+      <c r="S12">
+        <v>12.7771559735501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97849912878527</v>
+        <v>15.56875214815929</v>
       </c>
       <c r="C13">
-        <v>9.809204371072353</v>
+        <v>10.13131082106137</v>
       </c>
       <c r="D13">
-        <v>6.507893138539515</v>
+        <v>6.678712344794148</v>
       </c>
       <c r="E13">
-        <v>15.47606181245896</v>
+        <v>15.43919422766365</v>
       </c>
       <c r="F13">
-        <v>16.94468043244707</v>
+        <v>16.21245714858516</v>
       </c>
       <c r="G13">
-        <v>19.6862540506989</v>
+        <v>20.36673442069711</v>
       </c>
       <c r="H13">
-        <v>6.010149088568937</v>
+        <v>5.999226909961529</v>
       </c>
       <c r="I13">
-        <v>3.223065668144419</v>
+        <v>3.208297244727103</v>
       </c>
       <c r="J13">
-        <v>8.023756117326183</v>
+        <v>7.799425614408667</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.18274889981769</v>
       </c>
       <c r="M13">
-        <v>14.12337906403342</v>
+        <v>7.3272473513556</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.03850362026372</v>
       </c>
       <c r="P13">
-        <v>11.58859871593212</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.86356208543519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.67210602841265</v>
+      </c>
+      <c r="S13">
+        <v>12.35305808780612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.71631241198884</v>
+        <v>15.34633470093921</v>
       </c>
       <c r="C14">
-        <v>9.659000619775409</v>
+        <v>9.940878159128266</v>
       </c>
       <c r="D14">
-        <v>6.568944612583604</v>
+        <v>6.722717337626444</v>
       </c>
       <c r="E14">
-        <v>11.23269071674532</v>
+        <v>11.19390491409521</v>
       </c>
       <c r="F14">
-        <v>16.41105462306228</v>
+        <v>15.76635741303002</v>
       </c>
       <c r="G14">
-        <v>18.78932555626358</v>
+        <v>19.16843248426962</v>
       </c>
       <c r="H14">
-        <v>6.860730610015094</v>
+        <v>6.852582600333705</v>
       </c>
       <c r="I14">
-        <v>3.185297663255062</v>
+        <v>3.176451302031609</v>
       </c>
       <c r="J14">
-        <v>7.899202120719127</v>
+        <v>7.813724910830061</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.11920351244538</v>
       </c>
       <c r="M14">
-        <v>13.90226537577614</v>
+        <v>7.166870428474686</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.82897356483696</v>
       </c>
       <c r="P14">
-        <v>11.65044899987539</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.51889960503309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.73066103315409</v>
+      </c>
+      <c r="S14">
+        <v>12.07968399642017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.5970832637229</v>
+        <v>15.24322515228017</v>
       </c>
       <c r="C15">
-        <v>9.611717388135327</v>
+        <v>9.883119614023173</v>
       </c>
       <c r="D15">
-        <v>6.568993488255972</v>
+        <v>6.71428325895543</v>
       </c>
       <c r="E15">
-        <v>10.19648486474141</v>
+        <v>10.1579729359614</v>
       </c>
       <c r="F15">
-        <v>16.2542995019795</v>
+        <v>15.64864782593812</v>
       </c>
       <c r="G15">
-        <v>18.54013472856126</v>
+        <v>18.74265901552969</v>
       </c>
       <c r="H15">
-        <v>7.056792695102551</v>
+        <v>7.049476199230814</v>
       </c>
       <c r="I15">
-        <v>3.169185995023528</v>
+        <v>3.163610770967181</v>
       </c>
       <c r="J15">
-        <v>7.870270839424474</v>
+        <v>7.847268775711645</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.11515251288432</v>
       </c>
       <c r="M15">
-        <v>13.80987098674529</v>
+        <v>7.126853429967514</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.74340344473572</v>
       </c>
       <c r="P15">
-        <v>11.67389266806778</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.43076481082774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.75000681973133</v>
+      </c>
+      <c r="S15">
+        <v>12.02088257934199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.1158938745806</v>
+        <v>14.81766492419862</v>
       </c>
       <c r="C16">
-        <v>9.437367336660742</v>
+        <v>9.693793942806327</v>
       </c>
       <c r="D16">
-        <v>6.40662015500884</v>
+        <v>6.515398962470102</v>
       </c>
       <c r="E16">
-        <v>10.12133130864072</v>
+        <v>10.09503273663258</v>
       </c>
       <c r="F16">
-        <v>16.08861712456354</v>
+        <v>15.63000799576272</v>
       </c>
       <c r="G16">
-        <v>18.39752155435578</v>
+        <v>17.76644330784156</v>
       </c>
       <c r="H16">
-        <v>6.78896112952544</v>
+        <v>6.784026783354848</v>
       </c>
       <c r="I16">
-        <v>3.088178018406526</v>
+        <v>3.095917408979965</v>
       </c>
       <c r="J16">
-        <v>7.90495138026642</v>
+        <v>8.138882889337735</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.2494425885557</v>
       </c>
       <c r="M16">
-        <v>13.44097141001431</v>
+        <v>7.153004623178274</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.40803517923622</v>
       </c>
       <c r="P16">
-        <v>11.74200064509619</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.44660653927265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.79013028352747</v>
+      </c>
+      <c r="S16">
+        <v>12.13559524002046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.88402114459769</v>
+        <v>14.60304484788427</v>
       </c>
       <c r="C17">
-        <v>9.384361501738606</v>
+        <v>9.646146643601197</v>
       </c>
       <c r="D17">
-        <v>6.246202861735969</v>
+        <v>6.340213695184593</v>
       </c>
       <c r="E17">
-        <v>12.38862265263534</v>
+        <v>12.37068064666494</v>
       </c>
       <c r="F17">
-        <v>16.25278017770988</v>
+        <v>15.84405508085529</v>
       </c>
       <c r="G17">
-        <v>18.77554282687294</v>
+        <v>17.78410338876541</v>
       </c>
       <c r="H17">
-        <v>6.081898348833763</v>
+        <v>6.07771681638261</v>
       </c>
       <c r="I17">
-        <v>3.045722879917508</v>
+        <v>3.060215450069912</v>
       </c>
       <c r="J17">
-        <v>7.997830393484564</v>
+        <v>8.340362515247701</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.39157763503692</v>
       </c>
       <c r="M17">
-        <v>13.27474619721942</v>
+        <v>7.249866112218853</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.25706404080437</v>
       </c>
       <c r="P17">
-        <v>11.76314283243779</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.6429294396148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.79555135884886</v>
+      </c>
+      <c r="S17">
+        <v>12.3608405544438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.86178555021135</v>
+        <v>14.57149139225589</v>
       </c>
       <c r="C18">
-        <v>9.416998703404058</v>
+        <v>9.709224398149113</v>
       </c>
       <c r="D18">
-        <v>6.067907399492489</v>
+        <v>6.159060621793112</v>
       </c>
       <c r="E18">
-        <v>17.12416525925214</v>
+        <v>17.11026483820372</v>
       </c>
       <c r="F18">
-        <v>16.72874372349347</v>
+        <v>16.31626284889401</v>
       </c>
       <c r="G18">
-        <v>19.66504934893122</v>
+        <v>18.49613233673996</v>
       </c>
       <c r="H18">
-        <v>4.990956982686821</v>
+        <v>4.986200133728774</v>
       </c>
       <c r="I18">
-        <v>3.030810237437684</v>
+        <v>3.046284959215518</v>
       </c>
       <c r="J18">
-        <v>8.154263712137833</v>
+        <v>8.531617109000551</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.57361867115431</v>
       </c>
       <c r="M18">
-        <v>13.2708845831153</v>
+        <v>7.429712866229779</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.26029152657948</v>
       </c>
       <c r="P18">
-        <v>11.74826802238125</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.02520756966806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.76995864743206</v>
+      </c>
+      <c r="S18">
+        <v>12.73294349693779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98578143486366</v>
+        <v>14.66808406225584</v>
       </c>
       <c r="C19">
-        <v>9.562604741363547</v>
+        <v>9.909405685173695</v>
       </c>
       <c r="D19">
-        <v>5.897947255081619</v>
+        <v>5.993584109964477</v>
       </c>
       <c r="E19">
-        <v>23.5010750080038</v>
+        <v>23.48754626867224</v>
       </c>
       <c r="F19">
-        <v>17.37884096044706</v>
+        <v>16.93044160906096</v>
       </c>
       <c r="G19">
-        <v>20.83425231298994</v>
+        <v>19.57403944902175</v>
       </c>
       <c r="H19">
-        <v>3.909189511183393</v>
+        <v>3.902141301335438</v>
       </c>
       <c r="I19">
-        <v>3.050656563155058</v>
+        <v>3.064653646580282</v>
       </c>
       <c r="J19">
-        <v>8.340941281847329</v>
+        <v>8.712738289691643</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.76391249986737</v>
       </c>
       <c r="M19">
-        <v>13.402387307757</v>
+        <v>7.646567595077125</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.39425548290369</v>
       </c>
       <c r="P19">
-        <v>11.71268912669169</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.50509914760831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.72673721558329</v>
+      </c>
+      <c r="S19">
+        <v>13.17927903361529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55420443149007</v>
+        <v>15.16208635634893</v>
       </c>
       <c r="C20">
-        <v>9.940984652331819</v>
+        <v>10.40135977269318</v>
       </c>
       <c r="D20">
-        <v>5.749593984814266</v>
+        <v>5.868112943029134</v>
       </c>
       <c r="E20">
-        <v>33.66256048441928</v>
+        <v>33.6427765205833</v>
       </c>
       <c r="F20">
-        <v>18.54119245678767</v>
+        <v>17.97115875812031</v>
       </c>
       <c r="G20">
-        <v>22.82700435040515</v>
+        <v>21.70175812676397</v>
       </c>
       <c r="H20">
-        <v>3.476027539548606</v>
+        <v>3.461714271692679</v>
       </c>
       <c r="I20">
-        <v>3.152938468766828</v>
+        <v>3.15441793089219</v>
       </c>
       <c r="J20">
-        <v>8.623200593043245</v>
+        <v>8.86248182074025</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.97514932573023</v>
       </c>
       <c r="M20">
-        <v>13.89914219202048</v>
+        <v>8.015076185722434</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.88172765119197</v>
       </c>
       <c r="P20">
-        <v>11.60744989231991</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.28299878637502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.6182733664285</v>
+      </c>
+      <c r="S20">
+        <v>13.85676478188546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.49949144622422</v>
+        <v>15.98694576682352</v>
       </c>
       <c r="C21">
-        <v>10.35201838953668</v>
+        <v>10.85575314058138</v>
       </c>
       <c r="D21">
-        <v>5.974148819170048</v>
+        <v>6.164732942138153</v>
       </c>
       <c r="E21">
-        <v>36.4063890886635</v>
+        <v>36.37027394229666</v>
       </c>
       <c r="F21">
-        <v>19.18111871362248</v>
+        <v>18.28211164214261</v>
       </c>
       <c r="G21">
-        <v>23.69377143044113</v>
+        <v>24.32229020972687</v>
       </c>
       <c r="H21">
-        <v>3.771258813666604</v>
+        <v>3.744896590908985</v>
       </c>
       <c r="I21">
-        <v>3.319867957491522</v>
+        <v>3.294784630342874</v>
       </c>
       <c r="J21">
-        <v>8.670881514472358</v>
+        <v>8.192550616719229</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.74534900463313</v>
       </c>
       <c r="M21">
-        <v>14.64966066422344</v>
+        <v>8.124180132308151</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.56403073329419</v>
       </c>
       <c r="P21">
-        <v>11.44011182183035</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.53196890751501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.48338879816323</v>
+      </c>
+      <c r="S21">
+        <v>13.85534935038878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.09148563013174</v>
+        <v>16.50251204005571</v>
       </c>
       <c r="C22">
-        <v>10.57692177947699</v>
+        <v>11.09797362759722</v>
       </c>
       <c r="D22">
-        <v>6.122064556888194</v>
+        <v>6.360883854857883</v>
       </c>
       <c r="E22">
-        <v>37.6906179169403</v>
+        <v>37.64421191524645</v>
       </c>
       <c r="F22">
-        <v>19.5734204260781</v>
+        <v>18.44937288424865</v>
       </c>
       <c r="G22">
-        <v>24.21375510463101</v>
+        <v>26.09480167055537</v>
       </c>
       <c r="H22">
-        <v>3.94281935025493</v>
+        <v>3.90886813481448</v>
       </c>
       <c r="I22">
-        <v>3.421026153621424</v>
+        <v>3.377972287624795</v>
       </c>
       <c r="J22">
-        <v>8.698285220650195</v>
+        <v>7.779878223404481</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.59409332060649</v>
       </c>
       <c r="M22">
-        <v>15.10748689897606</v>
+        <v>8.198697784018961</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.97543383906361</v>
       </c>
       <c r="P22">
-        <v>11.33373698068493</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.68130480530545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.4010156199498</v>
+      </c>
+      <c r="S22">
+        <v>13.82992446464603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.79350515333875</v>
+        <v>16.2512583695187</v>
       </c>
       <c r="C23">
-        <v>10.43287752882997</v>
+        <v>10.95199448611345</v>
       </c>
       <c r="D23">
-        <v>6.039578646905759</v>
+        <v>6.246905162096732</v>
       </c>
       <c r="E23">
-        <v>37.01075441573666</v>
+        <v>36.97046164005459</v>
       </c>
       <c r="F23">
-        <v>19.3848045051689</v>
+        <v>18.40894757194146</v>
       </c>
       <c r="G23">
-        <v>23.9732000215846</v>
+        <v>24.9795765019012</v>
       </c>
       <c r="H23">
-        <v>3.851962887335241</v>
+        <v>3.822520746374045</v>
       </c>
       <c r="I23">
-        <v>3.363799109681481</v>
+        <v>3.329718806408299</v>
       </c>
       <c r="J23">
-        <v>8.689886615815194</v>
+        <v>8.063343941357424</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.6928573846214</v>
       </c>
       <c r="M23">
-        <v>14.8643334070415</v>
+        <v>8.185733925332823</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.76409249310219</v>
       </c>
       <c r="P23">
-        <v>11.38972524373932</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.61727067700077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.44173155382928</v>
+      </c>
+      <c r="S23">
+        <v>13.88054153205107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.58484106847439</v>
+        <v>15.19041369867478</v>
       </c>
       <c r="C24">
-        <v>9.914926746619628</v>
+        <v>10.37763593895565</v>
       </c>
       <c r="D24">
-        <v>5.722796141980234</v>
+        <v>5.84115543825421</v>
       </c>
       <c r="E24">
-        <v>34.32424634305094</v>
+        <v>34.3043686650386</v>
       </c>
       <c r="F24">
-        <v>18.63822242668522</v>
+        <v>18.06605390314202</v>
       </c>
       <c r="G24">
-        <v>23.00524737230377</v>
+        <v>21.85987470723962</v>
       </c>
       <c r="H24">
-        <v>3.499987271620851</v>
+        <v>3.48556831334525</v>
       </c>
       <c r="I24">
-        <v>3.148706376943009</v>
+        <v>3.147925831939658</v>
       </c>
       <c r="J24">
-        <v>8.653497146603065</v>
+        <v>8.895833997009341</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.01703405331234</v>
       </c>
       <c r="M24">
-        <v>13.90632744775603</v>
+        <v>8.061596032452801</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.88952103306857</v>
       </c>
       <c r="P24">
-        <v>11.60551183163276</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.35909912433998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.61408379245153</v>
+      </c>
+      <c r="S24">
+        <v>13.93009226839589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.16156926932394</v>
+        <v>13.86327304567996</v>
       </c>
       <c r="C25">
-        <v>9.331726741989959</v>
+        <v>9.623022301746289</v>
       </c>
       <c r="D25">
-        <v>5.35837245493433</v>
+        <v>5.442178342086081</v>
       </c>
       <c r="E25">
-        <v>31.18753817101213</v>
+        <v>31.18159925385828</v>
       </c>
       <c r="F25">
-        <v>17.83882328492834</v>
+        <v>17.38891981438437</v>
       </c>
       <c r="G25">
-        <v>21.97071652887187</v>
+        <v>20.7720339300553</v>
       </c>
       <c r="H25">
-        <v>3.104060737506025</v>
+        <v>3.099814400710351</v>
       </c>
       <c r="I25">
-        <v>2.909558162669938</v>
+        <v>2.936633009726168</v>
       </c>
       <c r="J25">
-        <v>8.626462767792255</v>
+        <v>8.941007760601575</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.2865420412891</v>
       </c>
       <c r="M25">
-        <v>12.79256193432851</v>
+        <v>7.861029315507838</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.78599479612262</v>
       </c>
       <c r="P25">
-        <v>11.84389639537068</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.10276796636194</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.82304519351795</v>
+      </c>
+      <c r="S25">
+        <v>13.76342505358594</v>
       </c>
     </row>
   </sheetData>
